--- a/data/case1/11/P_device_3.xlsx
+++ b/data/case1/11/P_device_3.xlsx
@@ -56,48 +56,48 @@
   <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.060793719157539221</v>
+        <v>0.025319509551944442</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.06079372089535437</v>
+        <v>-0.025319510267234623</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0090445091653526908</v>
+        <v>-0.040594747259237472</v>
       </c>
       <c r="B2" s="0">
-        <v>0.0090445074360311749</v>
+        <v>0.040594746539864057</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.029162193089287233</v>
+        <v>-0.014060498836495407</v>
       </c>
       <c r="B3" s="0">
-        <v>0.02916219120646114</v>
+        <v>0.014060498077372313</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.036121876506469294</v>
+        <v>0.057646366125184395</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.036121878307716127</v>
+        <v>-0.057646366855596404</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.02856047331344545</v>
+        <v>-0.015368927939619836</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.028560475141339078</v>
+        <v>0.015368927170522332</v>
       </c>
     </row>
   </sheetData>
